--- a/Variable Definitions.xlsx
+++ b/Variable Definitions.xlsx
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>=1 if a finalist is a male, 0 otherwise</t>
-  </si>
-  <si>
     <t>0.subject</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>=1 if a finalist has been awarded NRF fellowship, 0 otherwise</t>
   </si>
   <si>
-    <t>yrgrad_app</t>
-  </si>
-  <si>
     <t>complete</t>
   </si>
   <si>
@@ -241,6 +232,9 @@
   </si>
   <si>
     <t>a person's average number of citbyions per article by the year of applicbyion</t>
+  </si>
+  <si>
+    <t>yrsincephd</t>
   </si>
 </sst>
 </file>
@@ -580,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="A36:B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -613,28 +607,28 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -642,34 +636,34 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -682,34 +676,34 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -717,183 +711,175 @@
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
         <v>28</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
